--- a/Labs/Lab03/Lab3Rubric_CS295N.xlsx
+++ b/Labs/Lab03/Lab3Rubric_CS295N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8A337C53-00F0-F74E-85D7-E473D786A58E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C264AAA7-012D-CE42-9331-AF640886B176}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="4300" windowWidth="23520" windowHeight="16440"/>
+    <workbookView xWindow="-36260" yWindow="9640" windowWidth="23520" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab3Rubric_CS295N" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Lab 3, Group A - Community Web Site</t>
   </si>
@@ -31,33 +31,6 @@
     <t>Excellent work! Everything looks great!</t>
   </si>
   <si>
-    <t>reply controller methods 7/7</t>
-  </si>
-  <si>
-    <t>reply view(s) 8/8</t>
-  </si>
-  <si>
-    <t>repo refactor if needed 4/4</t>
-  </si>
-  <si>
-    <t>Sort messages with lambda 4/4</t>
-  </si>
-  <si>
-    <t>XC: message priority 0/5</t>
-  </si>
-  <si>
-    <t>Location table from data 6/8</t>
-  </si>
-  <si>
-    <t>People table from data 6/8</t>
-  </si>
-  <si>
-    <t>Sort locations with lambda 3/3</t>
-  </si>
-  <si>
-    <t>Sort people with lambda: 3/3</t>
-  </si>
-  <si>
     <t>Coding style and best practices: 4/4</t>
   </si>
   <si>
@@ -125,12 +98,36 @@
   </si>
   <si>
     <t>Code review by lab partner</t>
+  </si>
+  <si>
+    <t>reply controller methods</t>
+  </si>
+  <si>
+    <t>reply view(s)</t>
+  </si>
+  <si>
+    <t>Sort messages with lambda</t>
+  </si>
+  <si>
+    <t>XC: message priority</t>
+  </si>
+  <si>
+    <t>Location table from data</t>
+  </si>
+  <si>
+    <t>People table from data</t>
+  </si>
+  <si>
+    <t>Sort locations with lambda</t>
+  </si>
+  <si>
+    <t>Sort people with lambda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -989,11 +986,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1018,18 +1015,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -1040,7 +1037,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -1051,7 +1048,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -1062,7 +1059,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1073,10 +1070,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1084,11 +1081,11 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3">
         <f>SUM(B6:B10)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3">
         <f>SUM(C6:C9)</f>
@@ -1102,12 +1099,12 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -1118,7 +1115,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -1129,7 +1126,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1140,7 +1137,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1151,7 +1148,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B18" s="3">
         <f>SUM(B14:B17)</f>
@@ -1169,12 +1166,12 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -1185,7 +1182,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1196,11 +1193,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B23" s="3">
-        <f>SUM(B21:B22)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C23" s="3">
         <f>SUM(C21:C22)</f>
@@ -1214,7 +1210,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B25" s="4">
         <f>SUM(B11,B18,B23)</f>
@@ -1227,7 +1223,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1242,18 +1238,18 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -1264,7 +1260,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -1275,7 +1271,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -1286,7 +1282,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -1297,7 +1293,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1308,7 +1304,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B36" s="3">
         <f>SUM(B31:B35)</f>
@@ -1321,12 +1317,12 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -1337,7 +1333,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -1348,7 +1344,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -1359,7 +1355,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -1370,7 +1366,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B43" s="3">
         <f>SUM(B39:B42)</f>
@@ -1383,12 +1379,12 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -1399,7 +1395,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1410,7 +1406,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B48" s="3">
         <f>SUM(B46:B47)</f>
@@ -1423,7 +1419,7 @@
     </row>
     <row r="50" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B50" s="4">
         <f>SUM(B36,B43,B48)</f>

--- a/Labs/Lab03/Lab3Rubric_CS295N.xlsx
+++ b/Labs/Lab03/Lab3Rubric_CS295N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D19F744-0BDF-E44D-B7A1-548323B45C84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CFD2100-033F-0946-9881-71519B46B271}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15140" yWindow="4320" windowWidth="14700" windowHeight="18920" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
+    <workbookView xWindow="24320" yWindow="4540" windowWidth="14700" windowHeight="18920" activeTab="1" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t xml:space="preserve">Total: </t>
   </si>
@@ -58,9 +58,6 @@
     <t>View w/form for msg, story, or post</t>
   </si>
   <si>
-    <t>Model w/min 2 classes, min 6 properties</t>
-  </si>
-  <si>
     <t>HTTP Post method with redirect</t>
   </si>
   <si>
@@ -71,6 +68,15 @@
   </si>
   <si>
     <t>Coding style and best practices</t>
+  </si>
+  <si>
+    <t>2 model classes</t>
+  </si>
+  <si>
+    <t>7 model properties total</t>
+  </si>
+  <si>
+    <t>Here's the grading breakdown:</t>
   </si>
 </sst>
 </file>
@@ -461,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F9B31-93F6-EA4C-88EB-610E0C385149}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,10 +547,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -552,11 +558,11 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
+      <c r="A9" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -565,10 +571,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -577,7 +583,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -589,10 +595,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -601,10 +607,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -612,49 +618,53 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>8</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2">
-        <f>SUM(B4:B15)</f>
-        <v>50</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2">
+        <f>SUM(B4:B16)</f>
+        <v>50</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -908,10 +918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500450CF-4036-4C7A-B372-CF82A859E7EB}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:C17"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -931,6 +941,9 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -999,13 +1012,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1013,14 +1026,14 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
+      <c r="A9" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1029,22 +1042,21 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>8</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -1059,13 +1071,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1074,13 +1086,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1088,59 +1100,65 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1">
-        <v>8</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2">
-        <f>SUM(B4:B15)</f>
-        <v>50</v>
-      </c>
-      <c r="C17" s="2">
-        <f>SUM(C4:C15)</f>
-        <v>50</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2">
+        <f>SUM(B4:B16)</f>
+        <v>50</v>
+      </c>
+      <c r="C18" s="2">
+        <f>SUM(C4:C16)</f>
+        <v>50</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1156,54 +1174,57 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1227,13 +1248,13 @@
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1261,9 +1282,6 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
@@ -1275,18 +1293,18 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1302,49 +1320,53 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
+      <c r="A47" s="4"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
+      <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
@@ -1362,12 +1384,12 @@
       <c r="C53" s="5"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
+      <c r="A54" s="1"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
     </row>
@@ -1397,9 +1419,14 @@
       <c r="C60" s="5"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Labs/Lab03/Lab3Rubric_CS295N.xlsx
+++ b/Labs/Lab03/Lab3Rubric_CS295N.xlsx
@@ -1,43 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/Labs/Lab03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0801E769-9490-294A-A022-DADEDB5D5F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBBC8C8-3595-404D-8FC6-6BDEEBB66AC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="1640" windowWidth="14700" windowHeight="18920" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
+    <workbookView xWindow="2400" yWindow="500" windowWidth="12860" windowHeight="16520" activeTab="1" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Grade" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t xml:space="preserve">Total: </t>
   </si>
@@ -103,13 +92,19 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Excellent work!</t>
+  </si>
+  <si>
+    <t>Exercise completed--screenshot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,13 +170,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,23 +502,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F9B31-93F6-EA4C-88EB-610E0C385149}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -523,12 +527,12 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -536,17 +540,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -554,7 +558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -562,12 +566,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -575,7 +579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -583,12 +587,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -596,7 +600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -604,10 +608,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -615,7 +619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -623,7 +627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,92 +636,92 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="3"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="2"/>
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="2"/>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
@@ -729,13 +733,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500450CF-4036-4C7A-B372-CF82A859E7EB}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="30.33203125" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
@@ -744,71 +748,80 @@
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="34" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>13</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -816,191 +829,226 @@
       <c r="C10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>5</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="1">
-        <f>SUM(B4:B20)</f>
+      <c r="B23" s="1">
+        <f>SUM(B5:B21)</f>
         <v>40</v>
       </c>
-      <c r="C22" s="1">
-        <f>SUM(C4:C20)</f>
+      <c r="C23" s="1">
+        <f>SUM(C5:C21)</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E23" s="8"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:3">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
+    <row r="59" spans="1:3">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
+      <c r="A60" s="2"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+    <row r="66" spans="1:3">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Labs/Lab03/Lab3Rubric_CS295N.xlsx
+++ b/Labs/Lab03/Lab3Rubric_CS295N.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/Labs/Lab03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birdb\Repos\CS295N_Repos\CS295N-CourseMaterials\Labs\Lab03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBBC8C8-3595-404D-8FC6-6BDEEBB66AC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E47D22E-75A7-41E1-A3DC-8D62FAEC21E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="500" windowWidth="12860" windowHeight="16520" activeTab="1" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11280" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Grade" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t xml:space="preserve">Total: </t>
   </si>
@@ -98,6 +109,9 @@
   </si>
   <si>
     <t>Exercise completed--screenshot</t>
+  </si>
+  <si>
+    <t>PR sent to lab partner</t>
   </si>
 </sst>
 </file>
@@ -178,13 +192,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -204,9 +218,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -244,7 +258,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -350,7 +364,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -492,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -502,14 +516,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F9B31-93F6-EA4C-88EB-610E0C385149}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.6875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -563,7 +577,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -576,7 +590,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -619,12 +633,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -735,17 +757,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500450CF-4036-4C7A-B372-CF82A859E7EB}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="1.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.3125" customWidth="1"/>
+    <col min="2" max="2" width="7.6875" customWidth="1"/>
+    <col min="3" max="3" width="6.1875" customWidth="1"/>
+    <col min="4" max="4" width="1.3125" customWidth="1"/>
+    <col min="5" max="5" width="18.3125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -754,7 +776,7 @@
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="34" customHeight="1">
+    <row r="2" spans="1:5" ht="34.049999999999997" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -764,13 +786,13 @@
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -790,7 +812,7 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -802,22 +824,22 @@
       <c r="C6">
         <v>10</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="E7" s="8"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
@@ -829,37 +851,37 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="E11" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
@@ -871,13 +893,13 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
@@ -889,7 +911,7 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
@@ -901,10 +923,10 @@
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="E18" s="8"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
@@ -916,25 +938,34 @@
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="E20" s="8"/>
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="E21" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="E22" s="8"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
@@ -948,7 +979,7 @@
         <f>SUM(C5:C21)</f>
         <v>40</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1"/>

--- a/Labs/Lab03/Lab3Rubric_CS295N.xlsx
+++ b/Labs/Lab03/Lab3Rubric_CS295N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birdb\Repos\CS295N_Repos\CS295N-CourseMaterials\Labs\Lab03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E47D22E-75A7-41E1-A3DC-8D62FAEC21E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84807FFC-1720-49C6-94A5-38F8A17191DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11280" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10995" windowHeight="11363" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t xml:space="preserve">Total: </t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>PR sent to lab partner</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Good</t>
   </si>
 </sst>
 </file>
@@ -516,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F9B31-93F6-EA4C-88EB-610E0C385149}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -757,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500450CF-4036-4C7A-B372-CF82A859E7EB}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B21"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75"/>
@@ -824,7 +830,9 @@
       <c r="C6">
         <v>10</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="E7" s="6"/>
@@ -851,7 +859,9 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
@@ -863,7 +873,9 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
@@ -881,7 +893,9 @@
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
@@ -893,7 +907,9 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
@@ -911,7 +927,9 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
@@ -923,7 +941,9 @@
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="E18" s="6"/>
@@ -938,7 +958,9 @@
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
@@ -950,7 +972,9 @@
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
@@ -962,7 +986,9 @@
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="E22" s="6"/>

--- a/Labs/Lab03/Lab3Rubric_CS295N.xlsx
+++ b/Labs/Lab03/Lab3Rubric_CS295N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birdb\Repos\CS295N_Repos\CS295N-CourseMaterials\Labs\Lab03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84807FFC-1720-49C6-94A5-38F8A17191DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94A90B38-59DC-4DF9-8803-88AD59A967DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10995" windowHeight="11363" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t xml:space="preserve">Total: </t>
   </si>
@@ -81,9 +81,6 @@
     <t>2 or more model classes</t>
   </si>
   <si>
-    <t>5 model properties minimum</t>
-  </si>
-  <si>
     <t>Models</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>form for entering msg, story, or post</t>
   </si>
   <si>
-    <t>HTTP Post method to echo entry</t>
-  </si>
-  <si>
     <t>Lab 3 Rubric for All Groups</t>
   </si>
   <si>
@@ -118,6 +112,15 @@
   </si>
   <si>
     <t>Good</t>
+  </si>
+  <si>
+    <t>&gt;= 5 properties including Date, AppUser and an int</t>
+  </si>
+  <si>
+    <t>HTTP Post method to add date and echo entry</t>
+  </si>
+  <si>
+    <t>Points</t>
   </si>
 </sst>
 </file>
@@ -190,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -205,6 +208,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,19 +528,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F9B31-93F6-EA4C-88EB-610E0C385149}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="7.6875" customWidth="1"/>
+    <col min="1" max="1" width="42.375" customWidth="1"/>
+    <col min="2" max="2" width="6.0625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -543,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -567,7 +573,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -578,22 +584,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>14</v>
+    <row r="10" spans="1:3" ht="31.5">
+      <c r="A10" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -609,7 +615,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -620,12 +626,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>19</v>
+    <row r="16" spans="1:3" ht="31.5">
+      <c r="A16" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -641,7 +647,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -763,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500450CF-4036-4C7A-B372-CF82A859E7EB}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75"/>
@@ -784,7 +790,7 @@
     </row>
     <row r="2" spans="1:5" ht="34.049999999999997" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -811,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -822,7 +828,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -831,7 +837,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -845,7 +851,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -860,32 +866,32 @@
         <v>3</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="31.5">
+      <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -894,7 +900,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -908,12 +914,12 @@
         <v>4</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -928,21 +934,21 @@
         <v>2</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31.5">
+      <c r="A17" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -959,12 +965,12 @@
         <v>3</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -973,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -987,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5">

--- a/Labs/Lab03/Lab3Rubric_CS295N.xlsx
+++ b/Labs/Lab03/Lab3Rubric_CS295N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birdb\Repos\CS295N_Repos\CS295N-CourseMaterials\Labs\Lab03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-Repos/CS295N-CourseMaterials/Labs/Lab03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94A90B38-59DC-4DF9-8803-88AD59A967DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D23D26-F8A9-5449-82B6-EF06CB0A7930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10995" windowHeight="11363" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="16060" windowHeight="15460" activeTab="1" xr2:uid="{BBA0DDDD-2AF9-F84B-99D8-B3B03BF552D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
   <si>
     <t xml:space="preserve">Total: </t>
   </si>
@@ -99,9 +99,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Excellent work!</t>
-  </si>
-  <si>
     <t>Exercise completed--screenshot</t>
   </si>
   <si>
@@ -121,13 +118,16 @@
   </si>
   <si>
     <t>Points</t>
+  </si>
+  <si>
+    <t>Excellent! Everything works and the code looks good.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -203,6 +203,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -210,7 +213,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,37 +531,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1F9B31-93F6-EA4C-88EB-610E0C385149}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.375" customWidth="1"/>
-    <col min="2" max="2" width="6.0625" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -566,17 +569,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -584,20 +587,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5">
-      <c r="A10" s="9" t="s">
-        <v>25</v>
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -605,7 +608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -613,12 +616,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -626,18 +629,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="31.5">
-      <c r="A16" s="9" t="s">
-        <v>26</v>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -645,15 +648,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -661,7 +664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,92 +673,92 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
@@ -767,349 +770,388 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500450CF-4036-4C7A-B372-CF82A859E7EB}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B21"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.3125" customWidth="1"/>
-    <col min="2" max="2" width="7.6875" customWidth="1"/>
-    <col min="3" max="3" width="6.1875" customWidth="1"/>
-    <col min="4" max="4" width="1.3125" customWidth="1"/>
-    <col min="5" max="5" width="18.3125" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="34.049999999999997" customHeight="1">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="31.5">
-      <c r="A11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="31.5">
-      <c r="A17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="1">
-        <f>SUM(B5:B21)</f>
+      <c r="B24" s="1">
+        <f>SUM(B6:B22)</f>
         <v>40</v>
       </c>
-      <c r="C23" s="1">
-        <f>SUM(C5:C21)</f>
+      <c r="C24" s="1">
+        <f>SUM(C6:C22)</f>
         <v>40</v>
       </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2"/>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
